--- a/venta_departamento_bernardo-ohiggins.xlsx
+++ b/venta_departamento_bernardo-ohiggins.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="450">
   <si>
     <t>id</t>
   </si>
@@ -25,78 +25,141 @@
     <t>Precio</t>
   </si>
   <si>
+    <t>minMet</t>
+  </si>
+  <si>
+    <t>maxMet</t>
+  </si>
+  <si>
+    <t>promM</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lon</t>
+  </si>
+  <si>
     <t>link</t>
   </si>
   <si>
+    <t>Nueva Esperanza</t>
+  </si>
+  <si>
+    <t>$ 30.612.463</t>
+  </si>
+  <si>
+    <t>-34.16136</t>
+  </si>
+  <si>
+    <t>-70.73042</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/5429-nueva-esperanza-nva?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
+  </si>
+  <si>
+    <t>Edificio Parque Doña Javiera</t>
+  </si>
+  <si>
+    <t>$ 64.898.421</t>
+  </si>
+  <si>
+    <t>-34.18534</t>
+  </si>
+  <si>
+    <t>-70.72760</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/6432-edificio-parque-dona-javiera-nva?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
+  </si>
+  <si>
+    <t>Condominio Neokoke</t>
+  </si>
+  <si>
+    <t>$ 59.148.602</t>
+  </si>
+  <si>
+    <t>-34.16641</t>
+  </si>
+  <si>
+    <t>-70.75273</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/5443-condominio-neokoke-nva?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
+  </si>
+  <si>
     <t>Condominio Nueva Kennedy</t>
   </si>
   <si>
     <t>$ 33.540.611</t>
   </si>
   <si>
+    <t>-34.13961</t>
+  </si>
+  <si>
+    <t>-70.74002</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/4973-condominio-nueva-kennedy-nva?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
   </si>
   <si>
+    <t>Terrados de Kennedy</t>
+  </si>
+  <si>
+    <t>$ 65.217.855</t>
+  </si>
+  <si>
+    <t>-34.14968</t>
+  </si>
+  <si>
+    <t>-70.74246</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/6705-terrados-de-kennedy-nva?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
+  </si>
+  <si>
     <t>Brisas de Kennedy</t>
   </si>
   <si>
     <t>$ 30.665.702</t>
   </si>
   <si>
+    <t>-34.14078</t>
+  </si>
+  <si>
+    <t>-70.73728</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/6807-brisas-de-kennedy-nva?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
   </si>
   <si>
-    <t>Edificio Parque Doña Javiera</t>
-  </si>
-  <si>
-    <t>$ 64.898.421</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/6432-edificio-parque-dona-javiera-nva?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
-  </si>
-  <si>
-    <t>Terrados de Kennedy</t>
-  </si>
-  <si>
-    <t>$ 65.217.855</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/6705-terrados-de-kennedy-nva?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
-  </si>
-  <si>
-    <t>Nueva Esperanza</t>
-  </si>
-  <si>
-    <t>$ 30.612.463</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/5429-nueva-esperanza-nva?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
-  </si>
-  <si>
     <t>Edificio Membrillar 50</t>
   </si>
   <si>
     <t>$ 64.845.182</t>
   </si>
   <si>
+    <t>-34.17131</t>
+  </si>
+  <si>
+    <t>-70.73393</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/6959-edificio-membrillar-50-nva?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
   </si>
   <si>
-    <t>Condominio Neokoke</t>
-  </si>
-  <si>
-    <t>$ 59.148.602</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/5443-condominio-neokoke-nva?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
-  </si>
-  <si>
     <t>balmaceda 765, Rancagua</t>
   </si>
   <si>
     <t>$ 8.005.159</t>
   </si>
   <si>
+    <t>-34.16667</t>
+  </si>
+  <si>
+    <t>-70.75000</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/3569832-balmaceda-765-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
   </si>
   <si>
@@ -106,6 +169,12 @@
     <t>$ 9.994.413</t>
   </si>
   <si>
+    <t>-34.16399</t>
+  </si>
+  <si>
+    <t>-70.70271</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/3410030-poblacion-algarrobo-1220-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
   </si>
   <si>
@@ -115,6 +184,12 @@
     <t>$ 11.505.188</t>
   </si>
   <si>
+    <t>-34.58847</t>
+  </si>
+  <si>
+    <t>-70.98516</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/san-fernando-bernardo-ohiggins/2735532-primera-etapa-oferta-pasos-hospital-avenidas-excelente-estado-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
   </si>
   <si>
@@ -124,6 +199,12 @@
     <t>$ 14.803.817</t>
   </si>
   <si>
+    <t>-34.57259</t>
+  </si>
+  <si>
+    <t>-70.99964</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/san-fernando-bernardo-ohiggins/3580021-feliciano-silva-598-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -133,6 +214,12 @@
     <t>$ 15.003.868</t>
   </si>
   <si>
+    <t>-34.57208</t>
+  </si>
+  <si>
+    <t>-70.99872</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/san-fernando-bernardo-ohiggins/3579996-feliciano-silva-circunvalcion-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -142,6 +229,12 @@
     <t>$ 30.346.267</t>
   </si>
   <si>
+    <t>-34.14056</t>
+  </si>
+  <si>
+    <t>-70.73725</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/3519686-kennedy-2081-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -154,6 +247,12 @@
     <t>$ 31.544.146</t>
   </si>
   <si>
+    <t>-34.12576</t>
+  </si>
+  <si>
+    <t>-70.81666</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/3546427-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -163,6 +262,12 @@
     <t>$ 32.018.562</t>
   </si>
   <si>
+    <t>-34.17710</t>
+  </si>
+  <si>
+    <t>-70.71800</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/3571690-pedro-leon-gallohnos-amunategui-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -172,6 +277,12 @@
     <t>$ 34.472.295</t>
   </si>
   <si>
+    <t>-34.13882</t>
+  </si>
+  <si>
+    <t>-70.73833</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/2414197-samuel-roman-rojas-926-departamento-4302-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -181,6 +292,12 @@
     <t>$ 34.569.004</t>
   </si>
   <si>
+    <t>-34.47745</t>
+  </si>
+  <si>
+    <t>-71.47647</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/peralillo-bernardo-ohiggins/3380545-centro-peralillo-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -190,6 +307,12 @@
     <t>$ 35.070.002</t>
   </si>
   <si>
+    <t>-34.13889</t>
+  </si>
+  <si>
+    <t>-70.74060</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/3383334-gustavo-cabello-olguin-864-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -199,6 +322,12 @@
     <t>$ 35.941.653</t>
   </si>
   <si>
+    <t>-34.17219</t>
+  </si>
+  <si>
+    <t>-70.72891</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/3342098-membrillar-410-departamento-518-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -208,6 +337,12 @@
     <t>$ 36.020.889</t>
   </si>
   <si>
+    <t>-34.15076</t>
+  </si>
+  <si>
+    <t>-70.72923</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/3572122-williams-braden-500-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -217,6 +352,12 @@
     <t>$ 36.046.438</t>
   </si>
   <si>
+    <t>-34.17300</t>
+  </si>
+  <si>
+    <t>-70.73020</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/3311882-membrillar-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -226,6 +367,9 @@
     <t>$ 37.052.500</t>
   </si>
   <si>
+    <t>-70.73747</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/3410536-condominio-brisas-de-kennedy-00-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -235,6 +379,12 @@
     <t>$ 37.267.346</t>
   </si>
   <si>
+    <t>-34.13877</t>
+  </si>
+  <si>
+    <t>-70.73730</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/3198581-samuel-roman-rojas-850-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -253,6 +403,12 @@
     <t>$ 38.598.323</t>
   </si>
   <si>
+    <t>-34.13863</t>
+  </si>
+  <si>
+    <t>-70.73781</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/2407391-samuel-roman-rojas-926-departamento-2304-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -268,6 +424,12 @@
     <t>Machalí</t>
   </si>
   <si>
+    <t>-34.17660</t>
+  </si>
+  <si>
+    <t>-70.65710</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/machali-bernardo-ohiggins/2482580-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -277,6 +439,12 @@
     <t>$ 40.056.759</t>
   </si>
   <si>
+    <t>-34.16759</t>
+  </si>
+  <si>
+    <t>-70.75313</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/3484989-avenida-baquedano-avenida-koke-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -331,6 +499,12 @@
     <t>$ 45.058.047</t>
   </si>
   <si>
+    <t>-34.14630</t>
+  </si>
+  <si>
+    <t>-70.74120</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/3464262-condominio-terrazas-de-kennedy-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -352,6 +526,12 @@
     <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/3460935-diagonal-la-capilla-559-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
+    <t>-34.14130</t>
+  </si>
+  <si>
+    <t>-70.73430</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/3020250-recreo-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -361,6 +541,12 @@
     <t>$ 48.089.802</t>
   </si>
   <si>
+    <t>-34.17071</t>
+  </si>
+  <si>
+    <t>-70.73537</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/3348458-centrico-departamento-en-rancagua-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -370,6 +556,12 @@
     <t>$ 49.246.136</t>
   </si>
   <si>
+    <t>-34.17425</t>
+  </si>
+  <si>
+    <t>-70.73698</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/3438543-a-pasos-del-centro-moderno-y-rentable-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -379,6 +571,12 @@
     <t>$ 49.563.850</t>
   </si>
   <si>
+    <t>-34.16980</t>
+  </si>
+  <si>
+    <t>-70.73640</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/3210482-panoramic-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -388,6 +586,12 @@
     <t>$ 49.931.873</t>
   </si>
   <si>
+    <t>-34.16979</t>
+  </si>
+  <si>
+    <t>-70.73805</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/3433225-almarza-315-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -397,6 +601,12 @@
     <t>$ 50.064.495</t>
   </si>
   <si>
+    <t>-34.16860</t>
+  </si>
+  <si>
+    <t>-70.73760</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/2865586-panoramic-freire-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -427,24 +637,39 @@
     <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/2968424-neogamero-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
+    <t>MALAGA 491, Rancagua</t>
+  </si>
+  <si>
+    <t>$ 50.577.112</t>
+  </si>
+  <si>
+    <t>-34.14178</t>
+  </si>
+  <si>
+    <t>-70.73224</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/3225163-malaga-491-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
+  </si>
+  <si>
     <t>Centro de Rancagua cercano a Millan con Freire, Muy Buen Estado y Vistas!!, Rancagua</t>
   </si>
   <si>
-    <t>$ 50.577.112</t>
+    <t>-70.73638</t>
   </si>
   <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/3547968-centro-de-rancagua-cercano-a-millan-con-freire-muy-buen-estado-y-vistas-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
-    <t>MALAGA 491, Rancagua</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/3225163-malaga-491-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
-  </si>
-  <si>
     <t>Ramon Freire  377 - Departamento 1809, Rancagua</t>
   </si>
   <si>
+    <t>-34.17093</t>
+  </si>
+  <si>
+    <t>-70.73567</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/3558162-ramon-freire-377-departamento-1809-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -463,6 +688,12 @@
     <t>$ 53.905.510</t>
   </si>
   <si>
+    <t>-34.09685</t>
+  </si>
+  <si>
+    <t>-70.71992</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/3458299-diagonal-la-capilla-654-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -472,6 +703,12 @@
     <t>$ 54.931.650</t>
   </si>
   <si>
+    <t>-34.16713</t>
+  </si>
+  <si>
+    <t>-70.73936</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/3433202-caceres-340-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -490,6 +727,12 @@
     <t>$ 57.069.853</t>
   </si>
   <si>
+    <t>-34.17060</t>
+  </si>
+  <si>
+    <t>-70.73870</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/3426057-alcazaralmarza-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -499,6 +742,12 @@
     <t>$ 60.011.602</t>
   </si>
   <si>
+    <t>-34.14227</t>
+  </si>
+  <si>
+    <t>-70.74202</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/3580083-departamento-con-estacionamiento-camino-a-tuniche-940-dp-401-torre-j-rancagua-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -514,6 +763,12 @@
     <t>$ 62.079.974</t>
   </si>
   <si>
+    <t>-34.13860</t>
+  </si>
+  <si>
+    <t>-70.73540</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/3295596-parque-del-sol-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -523,6 +778,9 @@
     <t>$ 62.087.973</t>
   </si>
   <si>
+    <t>-70.73215</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/3300045-malaga-531-departamento-402-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -541,18 +799,33 @@
     <t>$ 65.008.378</t>
   </si>
   <si>
+    <t>-34.17370</t>
+  </si>
+  <si>
+    <t>-70.70254</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/3584977-san-joaquin-1-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
     <t>$ 66.548.832</t>
   </si>
   <si>
+    <t>-34.18510</t>
+  </si>
+  <si>
+    <t>-70.67270</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/2595334-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
     <t>Freire / Millan, Como Nuevo, con estacionamiento y bodega !!, Rancagua</t>
   </si>
   <si>
+    <t>-70.73720</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/3292521-freire-millan-como-nuevo-con-estacionamiento-y-bodega--uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -562,6 +835,12 @@
     <t>$ 69.544.807</t>
   </si>
   <si>
+    <t>-34.17284</t>
+  </si>
+  <si>
+    <t>-70.70121</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/machali-bernardo-ohiggins/2765716-av-san-joaquin-0320-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -571,6 +850,12 @@
     <t>$ 70.541.762</t>
   </si>
   <si>
+    <t>-34.17430</t>
+  </si>
+  <si>
+    <t>-70.70309</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/3583186-miguel-ramirez-condominio-alto-rancagua-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -580,6 +865,12 @@
     <t>$ 71.872.739</t>
   </si>
   <si>
+    <t>-34.17451</t>
+  </si>
+  <si>
+    <t>-70.70275</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/3304986-cercano-a-av-miguel-ramirez-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -595,6 +886,12 @@
     <t>$ 74.268.497</t>
   </si>
   <si>
+    <t>-34.17151</t>
+  </si>
+  <si>
+    <t>-70.70069</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/2793593-parque-machali-san-joaquin-0710-departamento-807-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -613,6 +910,12 @@
     <t>$ 78.100.613</t>
   </si>
   <si>
+    <t>-34.17460</t>
+  </si>
+  <si>
+    <t>-70.74430</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/3257398-campos-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -622,6 +925,12 @@
     <t>$ 88.376.849</t>
   </si>
   <si>
+    <t>-34.18698</t>
+  </si>
+  <si>
+    <t>-70.72374</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/2904888-condominio-alto-del-valle-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -637,6 +946,12 @@
     <t>$ 93.168.365</t>
   </si>
   <si>
+    <t>-34.18790</t>
+  </si>
+  <si>
+    <t>-70.72370</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/3557369-bombero-villalobosjaviera-carrera-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -646,12 +961,24 @@
     <t>$ 95.070.086</t>
   </si>
   <si>
+    <t>-34.16735</t>
+  </si>
+  <si>
+    <t>-70.73885</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/2430908-gran-departamento-con-excelente-ubicacion-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
     <t>$ 111.802.038</t>
   </si>
   <si>
+    <t>-34.18520</t>
+  </si>
+  <si>
+    <t>-70.72120</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/3538487-condominio-alto-del-valle-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -661,6 +988,12 @@
     <t>$ 133.800.119</t>
   </si>
   <si>
+    <t>-34.18985</t>
+  </si>
+  <si>
+    <t>-70.71919</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/3430288-condominio-alto-del-valle-1075-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -670,6 +1003,12 @@
     <t>$ 147.738.407</t>
   </si>
   <si>
+    <t>-34.18884</t>
+  </si>
+  <si>
+    <t>-70.72432</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/3553460-bombero-villalobos-1780-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -679,6 +1018,12 @@
     <t>$ 151.707.582</t>
   </si>
   <si>
+    <t>-34.15281</t>
+  </si>
+  <si>
+    <t>-70.71789</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/2923015-a-minutos-de-la-carretera-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -688,12 +1033,24 @@
     <t>$ 151.731.337</t>
   </si>
   <si>
+    <t>-34.23770</t>
+  </si>
+  <si>
+    <t>-71.42320</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/las-cabras-lago-rapel-bernardo-ohiggins/3000894-lago-rapel-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
     <t>CONDOMINIO MARINA GOLF RAPEL KM 7, Las Cabras - Lago Rapel</t>
   </si>
   <si>
+    <t>-34.15890</t>
+  </si>
+  <si>
+    <t>-71.41790</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/las-cabras-lago-rapel-bernardo-ohiggins/3083429-condominio-marina-golf-rapel-km-7-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -703,12 +1060,24 @@
     <t>$ 159.717.197</t>
   </si>
   <si>
+    <t>-34.13333</t>
+  </si>
+  <si>
+    <t>-71.50000</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/las-cabras-lago-rapel-bernardo-ohiggins/3183799-marina-golf-rapel-camino-el-estero-sn-kilometro-7-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
     <t>Marina Golf lago Rapel, Las Cabras - Lago Rapel</t>
   </si>
   <si>
+    <t>-34.15094</t>
+  </si>
+  <si>
+    <t>-71.45323</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/las-cabras-lago-rapel-bernardo-ohiggins/3361955-marina-golf-lago-rapel-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -718,6 +1087,12 @@
     <t>$ 162.911.541</t>
   </si>
   <si>
+    <t>-34.15380</t>
+  </si>
+  <si>
+    <t>-71.45630</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/las-cabras-lago-rapel-bernardo-ohiggins/3385600-marina-golf-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -730,6 +1105,12 @@
     <t>$ 167.749.404</t>
   </si>
   <si>
+    <t>-34.18954</t>
+  </si>
+  <si>
+    <t>-70.72431</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/3469556-bombero-villalobos-d-departamento-d-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -739,6 +1120,12 @@
     <t>$ 173.026.963</t>
   </si>
   <si>
+    <t>-34.16068</t>
+  </si>
+  <si>
+    <t>-71.45515</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/las-cabras-lago-rapel-bernardo-ohiggins/2904658-club-marina-golf-de-rapel-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -748,6 +1135,12 @@
     <t>$ 181.465.355</t>
   </si>
   <si>
+    <t>-34.15090</t>
+  </si>
+  <si>
+    <t>-71.45320</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/las-cabras-lago-rapel-bernardo-ohiggins/3547228-matina-golf-rapel-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -757,27 +1150,51 @@
     <t>$ 250.223.608</t>
   </si>
   <si>
+    <t>-34.20735</t>
+  </si>
+  <si>
+    <t>-70.65551</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/machali-bernardo-ohiggins/3300044-nogales-a-departamento-a-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
+    <t>Calle sin número, edificio B., Machalí</t>
+  </si>
+  <si>
     <t>$ 260.871.421</t>
   </si>
   <si>
+    <t>-33.43140</t>
+  </si>
+  <si>
+    <t>-70.57410</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/machali-bernardo-ohiggins/3083201-calle-sin-numero-edificio-b-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
+  </si>
+  <si>
+    <t>-34.20960</t>
+  </si>
+  <si>
+    <t>-70.65060</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/machali-bernardo-ohiggins/2482538-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
-    <t>Calle sin número, edificio B., Machalí</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/machali-bernardo-ohiggins/3083201-calle-sin-numero-edificio-b-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
-  </si>
-  <si>
     <t>Gran departamento en Nogales, Machalí</t>
   </si>
   <si>
     <t>$ 266.195.328</t>
   </si>
   <si>
+    <t>-34.20630</t>
+  </si>
+  <si>
+    <t>-70.65700</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/machali-bernardo-ohiggins/3514106-gran-departamento-en-nogales-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -787,6 +1204,12 @@
     <t>$ 290.152.908</t>
   </si>
   <si>
+    <t>-34.20722</t>
+  </si>
+  <si>
+    <t>-70.65605</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/machali-bernardo-ohiggins/3300042-nogales-b-b-departamento-b-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -796,12 +1219,24 @@
     <t>$ 295.476.814</t>
   </si>
   <si>
+    <t>-33.43160</t>
+  </si>
+  <si>
+    <t>-70.57450</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/machali-bernardo-ohiggins/3083202-calle-sin-numero-edifico-b-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
     <t>$ 300.800.721</t>
   </si>
   <si>
+    <t>-34.20670</t>
+  </si>
+  <si>
+    <t>-70.65350</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/machali-bernardo-ohiggins/2482540-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -811,12 +1246,18 @@
     <t>$ 39.050.306</t>
   </si>
   <si>
+    <t>summary_large_image</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/3551350-brisas-de-kennedy-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
     <t>$ 60.050.086</t>
   </si>
   <si>
+    <t>-70.73150</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/3418312-recreo-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -826,21 +1267,54 @@
     <t>$ 14.027.096</t>
   </si>
   <si>
+    <t>-34.58595</t>
+  </si>
+  <si>
+    <t>-70.99069</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/san-fernando-bernardo-ohiggins/3534550-poblacion-san-hernan-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
+    <t>Población Rancagua Sur, Rancagua</t>
+  </si>
+  <si>
+    <t>$ 28.000.000</t>
+  </si>
+  <si>
+    <t>-34.18192</t>
+  </si>
+  <si>
+    <t>-70.73726</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/3587835-poblacion-rancagua-sur-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
+  </si>
+  <si>
     <t>Gamero 61, Rancagua</t>
   </si>
   <si>
     <t>$ 34.605.393</t>
   </si>
   <si>
+    <t>-34.17311</t>
+  </si>
+  <si>
+    <t>-70.73661</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/3549526-gamero-61-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
     <t>$ 36.044.112</t>
   </si>
   <si>
+    <t>-34.16436</t>
+  </si>
+  <si>
+    <t>-70.75210</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/3552873-condominio-parque-koke-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -850,13 +1324,19 @@
     <t>$ 60.003.866</t>
   </si>
   <si>
+    <t>-34.16676</t>
+  </si>
+  <si>
+    <t>-70.73580</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/3110076-alameda-con-zanartu-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
     <t>Gamero 61 - Departamento 208, Rancagua</t>
   </si>
   <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/3567426-gamero-61-departamento-208-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
+    <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/3567426-gamero-61-departamento-208-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
     <t>San Fernando</t>
@@ -865,6 +1345,12 @@
     <t>$ 95.830.318</t>
   </si>
   <si>
+    <t>-34.58579</t>
+  </si>
+  <si>
+    <t>-70.98803</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/san-fernando-bernardo-ohiggins/3581589-san-fernando-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -872,6 +1358,9 @@
   </si>
   <si>
     <t>$ 19.033.094</t>
+  </si>
+  <si>
+    <t>-70.74054</t>
   </si>
   <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/rancagua-bernardo-ohiggins/3540940-rancagua-calle-diego-de-almagro-uda?tp=2&amp;op=1&amp;iug=447&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
@@ -1215,7 +1704,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D103"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1225,7 +1714,7 @@
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1238,1539 +1727,3114 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
+        <v>5429</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>44.58</v>
+      </c>
+      <c r="E2">
+        <v>55.22</v>
+      </c>
+      <c r="F2">
+        <v>49.9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>6432</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>53.41</v>
+      </c>
+      <c r="E3">
+        <v>84.54000000000001</v>
+      </c>
+      <c r="F3">
+        <v>68.97499999999999</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>5443</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>65.08</v>
+      </c>
+      <c r="E4">
+        <v>72.31999999999999</v>
+      </c>
+      <c r="F4">
+        <v>68.69999999999999</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>4973</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>49.54</v>
+      </c>
+      <c r="E5">
+        <v>49.96</v>
+      </c>
+      <c r="F5">
+        <v>49.75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>6705</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>71</v>
+      </c>
+      <c r="E6">
+        <v>87</v>
+      </c>
+      <c r="F6">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>6807</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>6432</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>6705</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>5429</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7">
+        <v>49.2</v>
+      </c>
+      <c r="E7">
+        <v>49.28</v>
+      </c>
+      <c r="F7">
+        <v>49.24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>6959</v>
       </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>5443</v>
-      </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <v>39.74</v>
+      </c>
+      <c r="E8">
+        <v>89.84999999999999</v>
+      </c>
+      <c r="F8">
+        <v>64.795</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>3569832</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>45</v>
+      </c>
+      <c r="D9">
+        <v>42</v>
+      </c>
+      <c r="E9">
+        <v>42</v>
+      </c>
+      <c r="F9">
+        <v>42</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>3410030</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>40</v>
+      </c>
+      <c r="F10">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>2735532</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>55</v>
+      </c>
+      <c r="D11">
+        <v>50</v>
+      </c>
+      <c r="E11">
+        <v>50</v>
+      </c>
+      <c r="F11">
+        <v>50</v>
+      </c>
+      <c r="G11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>3580021</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>60</v>
+      </c>
+      <c r="D12">
+        <v>50</v>
+      </c>
+      <c r="E12">
+        <v>50</v>
+      </c>
+      <c r="F12">
+        <v>50</v>
+      </c>
+      <c r="G12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>3579996</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>65</v>
+      </c>
+      <c r="D13">
+        <v>50</v>
+      </c>
+      <c r="E13">
+        <v>50</v>
+      </c>
+      <c r="F13">
+        <v>50</v>
+      </c>
+      <c r="G13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>3519686</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>70</v>
+      </c>
+      <c r="D14">
+        <v>46</v>
+      </c>
+      <c r="E14">
+        <v>46</v>
+      </c>
+      <c r="F14">
+        <v>46</v>
+      </c>
+      <c r="G14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>3538841</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>70</v>
+      </c>
+      <c r="D15">
+        <v>46</v>
+      </c>
+      <c r="E15">
+        <v>46</v>
+      </c>
+      <c r="F15">
+        <v>46</v>
+      </c>
+      <c r="G15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>3546427</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>76</v>
+      </c>
+      <c r="D16">
+        <v>48</v>
+      </c>
+      <c r="E16">
+        <v>48</v>
+      </c>
+      <c r="F16">
+        <v>48</v>
+      </c>
+      <c r="G16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>3571690</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>81</v>
+      </c>
+      <c r="D17">
+        <v>50</v>
+      </c>
+      <c r="E17">
+        <v>50</v>
+      </c>
+      <c r="F17">
+        <v>50</v>
+      </c>
+      <c r="G17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>2414197</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>86</v>
+      </c>
+      <c r="D18">
+        <v>44</v>
+      </c>
+      <c r="E18">
+        <v>46</v>
+      </c>
+      <c r="F18">
+        <v>45</v>
+      </c>
+      <c r="G18" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>3380545</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>91</v>
+      </c>
+      <c r="D19">
+        <v>75</v>
+      </c>
+      <c r="E19">
+        <v>75</v>
+      </c>
+      <c r="F19">
+        <v>75</v>
+      </c>
+      <c r="G19" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" t="s">
+        <v>93</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>3383334</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>96</v>
+      </c>
+      <c r="D20">
+        <v>50</v>
+      </c>
+      <c r="E20">
+        <v>52</v>
+      </c>
+      <c r="F20">
+        <v>51</v>
+      </c>
+      <c r="G20" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" t="s">
+        <v>98</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>3342098</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>101</v>
+      </c>
+      <c r="D21">
+        <v>50</v>
+      </c>
+      <c r="E21">
+        <v>50</v>
+      </c>
+      <c r="F21">
+        <v>50</v>
+      </c>
+      <c r="G21" t="s">
+        <v>102</v>
+      </c>
+      <c r="H21" t="s">
+        <v>103</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>3572122</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>106</v>
+      </c>
+      <c r="D22">
+        <v>80</v>
+      </c>
+      <c r="E22">
+        <v>83</v>
+      </c>
+      <c r="F22">
+        <v>81.5</v>
+      </c>
+      <c r="G22" t="s">
+        <v>107</v>
+      </c>
+      <c r="H22" t="s">
+        <v>108</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>3311882</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>111</v>
+      </c>
+      <c r="D23">
+        <v>55</v>
+      </c>
+      <c r="E23">
+        <v>55</v>
+      </c>
+      <c r="F23">
+        <v>55</v>
+      </c>
+      <c r="G23" t="s">
+        <v>112</v>
+      </c>
+      <c r="H23" t="s">
+        <v>113</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>3410536</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>116</v>
+      </c>
+      <c r="D24">
+        <v>45</v>
+      </c>
+      <c r="E24">
+        <v>48</v>
+      </c>
+      <c r="F24">
+        <v>46.5</v>
+      </c>
+      <c r="G24" t="s">
+        <v>87</v>
+      </c>
+      <c r="H24" t="s">
+        <v>117</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>3198581</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>120</v>
+      </c>
+      <c r="D25">
+        <v>47</v>
+      </c>
+      <c r="E25">
+        <v>49.2</v>
+      </c>
+      <c r="F25">
+        <v>48.1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>121</v>
+      </c>
+      <c r="H25" t="s">
+        <v>122</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>3512381</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>125</v>
+      </c>
+      <c r="D26">
+        <v>46</v>
+      </c>
+      <c r="E26">
+        <v>46</v>
+      </c>
+      <c r="F26">
+        <v>46</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>2407391</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>128</v>
+      </c>
+      <c r="D27">
+        <v>42</v>
+      </c>
+      <c r="E27">
+        <v>44</v>
+      </c>
+      <c r="F27">
+        <v>43</v>
+      </c>
+      <c r="G27" t="s">
+        <v>129</v>
+      </c>
+      <c r="H27" t="s">
+        <v>130</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>3156341</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>133</v>
+      </c>
+      <c r="D28">
+        <v>56.91</v>
+      </c>
+      <c r="E28">
+        <v>61.37</v>
+      </c>
+      <c r="F28">
+        <v>59.14</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>2482580</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>133</v>
+      </c>
+      <c r="D29">
+        <v>30</v>
+      </c>
+      <c r="E29">
+        <v>30</v>
+      </c>
+      <c r="F29">
+        <v>30</v>
+      </c>
+      <c r="G29" t="s">
+        <v>136</v>
+      </c>
+      <c r="H29" t="s">
+        <v>137</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>3484989</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>140</v>
+      </c>
+      <c r="D30">
+        <v>60</v>
+      </c>
+      <c r="E30">
+        <v>60</v>
+      </c>
+      <c r="F30">
+        <v>60</v>
+      </c>
+      <c r="G30" t="s">
+        <v>141</v>
+      </c>
+      <c r="H30" t="s">
+        <v>142</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>3428093</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>145</v>
+      </c>
+      <c r="D31">
+        <v>49</v>
+      </c>
+      <c r="E31">
+        <v>49</v>
+      </c>
+      <c r="F31">
+        <v>49</v>
+      </c>
+      <c r="G31" t="s">
+        <v>77</v>
+      </c>
+      <c r="H31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>3096897</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>148</v>
+      </c>
+      <c r="D32">
+        <v>45</v>
+      </c>
+      <c r="E32">
+        <v>45</v>
+      </c>
+      <c r="F32">
+        <v>45</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>3479644</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>151</v>
+      </c>
+      <c r="D33">
+        <v>53</v>
+      </c>
+      <c r="E33">
+        <v>53</v>
+      </c>
+      <c r="F33">
+        <v>53</v>
+      </c>
+      <c r="G33" t="s">
+        <v>77</v>
+      </c>
+      <c r="H33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>3438583</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>154</v>
+      </c>
+      <c r="D34">
+        <v>53</v>
+      </c>
+      <c r="E34">
+        <v>53</v>
+      </c>
+      <c r="F34">
+        <v>53</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>3520323</v>
       </c>
       <c r="B35" t="s">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="C35" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>157</v>
+      </c>
+      <c r="D35">
+        <v>60</v>
+      </c>
+      <c r="E35">
+        <v>60</v>
+      </c>
+      <c r="F35">
+        <v>60</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>3464262</v>
       </c>
       <c r="B36" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="C36" t="s">
-        <v>104</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>160</v>
+      </c>
+      <c r="D36">
+        <v>60</v>
+      </c>
+      <c r="E36">
+        <v>60</v>
+      </c>
+      <c r="F36">
+        <v>60</v>
+      </c>
+      <c r="G36" t="s">
+        <v>161</v>
+      </c>
+      <c r="H36" t="s">
+        <v>162</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>3391138</v>
       </c>
       <c r="B37" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
       <c r="C37" t="s">
-        <v>107</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>165</v>
+      </c>
+      <c r="D37">
+        <v>53</v>
+      </c>
+      <c r="E37">
+        <v>53</v>
+      </c>
+      <c r="F37">
+        <v>53</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>3460935</v>
       </c>
       <c r="B38" t="s">
-        <v>109</v>
+        <v>167</v>
       </c>
       <c r="C38" t="s">
-        <v>110</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>168</v>
+      </c>
+      <c r="D38">
+        <v>56</v>
+      </c>
+      <c r="E38">
+        <v>60</v>
+      </c>
+      <c r="F38">
+        <v>58</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>3020250</v>
       </c>
       <c r="B39" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c r="C39" t="s">
-        <v>110</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>168</v>
+      </c>
+      <c r="D39">
+        <v>-1</v>
+      </c>
+      <c r="E39">
+        <v>-1</v>
+      </c>
+      <c r="F39">
+        <v>-1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>170</v>
+      </c>
+      <c r="H39" t="s">
+        <v>171</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>3348458</v>
       </c>
       <c r="B40" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="C40" t="s">
-        <v>114</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>174</v>
+      </c>
+      <c r="D40">
+        <v>42</v>
+      </c>
+      <c r="E40">
+        <v>44</v>
+      </c>
+      <c r="F40">
+        <v>43</v>
+      </c>
+      <c r="G40" t="s">
+        <v>175</v>
+      </c>
+      <c r="H40" t="s">
+        <v>176</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>3438543</v>
       </c>
       <c r="B41" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="C41" t="s">
-        <v>117</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>179</v>
+      </c>
+      <c r="D41">
+        <v>32</v>
+      </c>
+      <c r="E41">
+        <v>35.5</v>
+      </c>
+      <c r="F41">
+        <v>33.75</v>
+      </c>
+      <c r="G41" t="s">
+        <v>180</v>
+      </c>
+      <c r="H41" t="s">
+        <v>181</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>3210482</v>
       </c>
       <c r="B42" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c r="C42" t="s">
-        <v>120</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>184</v>
+      </c>
+      <c r="D42">
+        <v>40</v>
+      </c>
+      <c r="E42">
+        <v>40</v>
+      </c>
+      <c r="F42">
+        <v>40</v>
+      </c>
+      <c r="G42" t="s">
+        <v>185</v>
+      </c>
+      <c r="H42" t="s">
+        <v>186</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>3433225</v>
       </c>
       <c r="B43" t="s">
-        <v>122</v>
+        <v>188</v>
       </c>
       <c r="C43" t="s">
-        <v>123</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>189</v>
+      </c>
+      <c r="D43">
+        <v>60</v>
+      </c>
+      <c r="E43">
+        <v>60</v>
+      </c>
+      <c r="F43">
+        <v>60</v>
+      </c>
+      <c r="G43" t="s">
+        <v>190</v>
+      </c>
+      <c r="H43" t="s">
+        <v>191</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>2865586</v>
       </c>
       <c r="B44" t="s">
-        <v>125</v>
+        <v>193</v>
       </c>
       <c r="C44" t="s">
-        <v>126</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>194</v>
+      </c>
+      <c r="D44">
+        <v>45</v>
+      </c>
+      <c r="E44">
+        <v>45</v>
+      </c>
+      <c r="F44">
+        <v>45</v>
+      </c>
+      <c r="G44" t="s">
+        <v>195</v>
+      </c>
+      <c r="H44" t="s">
+        <v>196</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>3272727</v>
       </c>
       <c r="B45" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="C45" t="s">
-        <v>129</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>199</v>
+      </c>
+      <c r="D45">
+        <v>55</v>
+      </c>
+      <c r="E45">
+        <v>65</v>
+      </c>
+      <c r="F45">
+        <v>60</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>2576187</v>
       </c>
       <c r="B46" t="s">
-        <v>131</v>
+        <v>201</v>
       </c>
       <c r="C46" t="s">
-        <v>132</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>202</v>
+      </c>
+      <c r="D46">
+        <v>40</v>
+      </c>
+      <c r="E46">
+        <v>44</v>
+      </c>
+      <c r="F46">
+        <v>42</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>2968424</v>
       </c>
       <c r="B47" t="s">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c r="C47" t="s">
-        <v>135</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>205</v>
+      </c>
+      <c r="D47">
+        <v>59</v>
+      </c>
+      <c r="E47">
+        <v>59</v>
+      </c>
+      <c r="F47">
+        <v>59</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48">
+        <v>3225163</v>
+      </c>
+      <c r="B48" t="s">
+        <v>207</v>
+      </c>
+      <c r="C48" t="s">
+        <v>208</v>
+      </c>
+      <c r="D48">
+        <v>11</v>
+      </c>
+      <c r="E48">
+        <v>24</v>
+      </c>
+      <c r="F48">
+        <v>17.5</v>
+      </c>
+      <c r="G48" t="s">
+        <v>209</v>
+      </c>
+      <c r="H48" t="s">
+        <v>210</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>3547968</v>
       </c>
-      <c r="B48" t="s">
-        <v>137</v>
-      </c>
-      <c r="C48" t="s">
-        <v>138</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49">
-        <v>3225163</v>
-      </c>
       <c r="B49" t="s">
-        <v>140</v>
+        <v>212</v>
       </c>
       <c r="C49" t="s">
-        <v>138</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>208</v>
+      </c>
+      <c r="D49">
+        <v>32</v>
+      </c>
+      <c r="E49">
+        <v>35</v>
+      </c>
+      <c r="F49">
+        <v>33.5</v>
+      </c>
+      <c r="G49" t="s">
+        <v>180</v>
+      </c>
+      <c r="H49" t="s">
+        <v>213</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50">
         <v>3558162</v>
       </c>
       <c r="B50" t="s">
-        <v>142</v>
+        <v>215</v>
       </c>
       <c r="C50" t="s">
-        <v>138</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>208</v>
+      </c>
+      <c r="D50">
+        <v>35</v>
+      </c>
+      <c r="E50">
+        <v>38</v>
+      </c>
+      <c r="F50">
+        <v>36.5</v>
+      </c>
+      <c r="G50" t="s">
+        <v>216</v>
+      </c>
+      <c r="H50" t="s">
+        <v>217</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51">
         <v>3166573</v>
       </c>
       <c r="B51" t="s">
-        <v>144</v>
+        <v>219</v>
       </c>
       <c r="C51" t="s">
-        <v>145</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>220</v>
+      </c>
+      <c r="D51">
+        <v>57</v>
+      </c>
+      <c r="E51">
+        <v>61</v>
+      </c>
+      <c r="F51">
+        <v>59</v>
+      </c>
+      <c r="G51" t="s">
+        <v>170</v>
+      </c>
+      <c r="H51" t="s">
+        <v>171</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52">
         <v>3458299</v>
       </c>
       <c r="B52" t="s">
-        <v>147</v>
+        <v>222</v>
       </c>
       <c r="C52" t="s">
-        <v>148</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>223</v>
+      </c>
+      <c r="D52">
+        <v>70</v>
+      </c>
+      <c r="E52">
+        <v>74</v>
+      </c>
+      <c r="F52">
+        <v>72</v>
+      </c>
+      <c r="G52" t="s">
+        <v>224</v>
+      </c>
+      <c r="H52" t="s">
+        <v>225</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53">
         <v>3433202</v>
       </c>
       <c r="B53" t="s">
-        <v>150</v>
+        <v>227</v>
       </c>
       <c r="C53" t="s">
-        <v>151</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>228</v>
+      </c>
+      <c r="D53">
+        <v>80</v>
+      </c>
+      <c r="E53">
+        <v>80</v>
+      </c>
+      <c r="F53">
+        <v>80</v>
+      </c>
+      <c r="G53" t="s">
+        <v>229</v>
+      </c>
+      <c r="H53" t="s">
+        <v>230</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54">
         <v>2786449</v>
       </c>
       <c r="B54" t="s">
-        <v>153</v>
+        <v>232</v>
       </c>
       <c r="C54" t="s">
-        <v>154</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>233</v>
+      </c>
+      <c r="D54">
+        <v>41</v>
+      </c>
+      <c r="E54">
+        <v>41</v>
+      </c>
+      <c r="F54">
+        <v>41</v>
+      </c>
+      <c r="G54" t="s">
+        <v>77</v>
+      </c>
+      <c r="H54" t="s">
+        <v>78</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55">
         <v>3426057</v>
       </c>
       <c r="B55" t="s">
-        <v>156</v>
+        <v>235</v>
       </c>
       <c r="C55" t="s">
-        <v>157</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>236</v>
+      </c>
+      <c r="D55">
+        <v>90</v>
+      </c>
+      <c r="E55">
+        <v>90</v>
+      </c>
+      <c r="F55">
+        <v>90</v>
+      </c>
+      <c r="G55" t="s">
+        <v>237</v>
+      </c>
+      <c r="H55" t="s">
+        <v>238</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56">
         <v>3580083</v>
       </c>
       <c r="B56" t="s">
-        <v>159</v>
+        <v>240</v>
       </c>
       <c r="C56" t="s">
-        <v>160</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>241</v>
+      </c>
+      <c r="D56">
+        <v>60</v>
+      </c>
+      <c r="E56">
+        <v>60</v>
+      </c>
+      <c r="F56">
+        <v>60</v>
+      </c>
+      <c r="G56" t="s">
+        <v>242</v>
+      </c>
+      <c r="H56" t="s">
+        <v>243</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57">
         <v>3063219</v>
       </c>
       <c r="B57" t="s">
-        <v>144</v>
+        <v>219</v>
       </c>
       <c r="C57" t="s">
-        <v>162</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>245</v>
+      </c>
+      <c r="D57">
+        <v>98</v>
+      </c>
+      <c r="E57">
+        <v>98</v>
+      </c>
+      <c r="F57">
+        <v>98</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58">
         <v>3295596</v>
       </c>
       <c r="B58" t="s">
-        <v>164</v>
+        <v>247</v>
       </c>
       <c r="C58" t="s">
-        <v>165</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>248</v>
+      </c>
+      <c r="D58">
+        <v>-1</v>
+      </c>
+      <c r="E58">
+        <v>-1</v>
+      </c>
+      <c r="F58">
+        <v>-1</v>
+      </c>
+      <c r="G58" t="s">
+        <v>249</v>
+      </c>
+      <c r="H58" t="s">
+        <v>250</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59">
         <v>3300045</v>
       </c>
       <c r="B59" t="s">
-        <v>167</v>
+        <v>252</v>
       </c>
       <c r="C59" t="s">
-        <v>168</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>253</v>
+      </c>
+      <c r="D59">
+        <v>84</v>
+      </c>
+      <c r="E59">
+        <v>86</v>
+      </c>
+      <c r="F59">
+        <v>85</v>
+      </c>
+      <c r="G59" t="s">
+        <v>87</v>
+      </c>
+      <c r="H59" t="s">
+        <v>254</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60">
         <v>2869901</v>
       </c>
       <c r="B60" t="s">
-        <v>170</v>
+        <v>256</v>
       </c>
       <c r="C60" t="s">
-        <v>171</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>257</v>
+      </c>
+      <c r="D60">
+        <v>60</v>
+      </c>
+      <c r="E60">
+        <v>60</v>
+      </c>
+      <c r="F60">
+        <v>60</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61">
         <v>3584977</v>
       </c>
       <c r="B61" t="s">
-        <v>173</v>
+        <v>259</v>
       </c>
       <c r="C61" t="s">
-        <v>174</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>260</v>
+      </c>
+      <c r="D61">
+        <v>54</v>
+      </c>
+      <c r="E61">
+        <v>59</v>
+      </c>
+      <c r="F61">
+        <v>56.5</v>
+      </c>
+      <c r="G61" t="s">
+        <v>261</v>
+      </c>
+      <c r="H61" t="s">
+        <v>262</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62">
         <v>2595334</v>
       </c>
       <c r="B62" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="C62" t="s">
-        <v>176</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>264</v>
+      </c>
+      <c r="D62">
+        <v>55</v>
+      </c>
+      <c r="E62">
+        <v>55</v>
+      </c>
+      <c r="F62">
+        <v>55</v>
+      </c>
+      <c r="G62" t="s">
+        <v>265</v>
+      </c>
+      <c r="H62" t="s">
+        <v>266</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63">
         <v>3292521</v>
       </c>
       <c r="B63" t="s">
-        <v>178</v>
+        <v>268</v>
       </c>
       <c r="C63" t="s">
-        <v>176</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>264</v>
+      </c>
+      <c r="D63">
+        <v>52</v>
+      </c>
+      <c r="E63">
+        <v>59</v>
+      </c>
+      <c r="F63">
+        <v>55.5</v>
+      </c>
+      <c r="G63" t="s">
+        <v>180</v>
+      </c>
+      <c r="H63" t="s">
+        <v>269</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64">
         <v>2765716</v>
       </c>
       <c r="B64" t="s">
-        <v>180</v>
+        <v>271</v>
       </c>
       <c r="C64" t="s">
-        <v>181</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>272</v>
+      </c>
+      <c r="D64">
+        <v>56</v>
+      </c>
+      <c r="E64">
+        <v>56</v>
+      </c>
+      <c r="F64">
+        <v>56</v>
+      </c>
+      <c r="G64" t="s">
+        <v>273</v>
+      </c>
+      <c r="H64" t="s">
+        <v>274</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65">
         <v>3583186</v>
       </c>
       <c r="B65" t="s">
-        <v>183</v>
+        <v>276</v>
       </c>
       <c r="C65" t="s">
-        <v>184</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>277</v>
+      </c>
+      <c r="D65">
+        <v>60</v>
+      </c>
+      <c r="E65">
+        <v>67</v>
+      </c>
+      <c r="F65">
+        <v>63.5</v>
+      </c>
+      <c r="G65" t="s">
+        <v>278</v>
+      </c>
+      <c r="H65" t="s">
+        <v>279</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66">
         <v>3304986</v>
       </c>
       <c r="B66" t="s">
-        <v>186</v>
+        <v>281</v>
       </c>
       <c r="C66" t="s">
-        <v>187</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>282</v>
+      </c>
+      <c r="D66">
+        <v>60</v>
+      </c>
+      <c r="E66">
+        <v>60</v>
+      </c>
+      <c r="F66">
+        <v>60</v>
+      </c>
+      <c r="G66" t="s">
+        <v>283</v>
+      </c>
+      <c r="H66" t="s">
+        <v>284</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67">
         <v>3517072</v>
       </c>
       <c r="B67" t="s">
-        <v>189</v>
+        <v>286</v>
       </c>
       <c r="C67" t="s">
-        <v>187</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>282</v>
+      </c>
+      <c r="D67">
+        <v>60</v>
+      </c>
+      <c r="E67">
+        <v>70</v>
+      </c>
+      <c r="F67">
+        <v>65</v>
+      </c>
+      <c r="G67" t="s">
+        <v>77</v>
+      </c>
+      <c r="H67" t="s">
+        <v>78</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68">
         <v>2793593</v>
       </c>
       <c r="B68" t="s">
-        <v>191</v>
+        <v>288</v>
       </c>
       <c r="C68" t="s">
-        <v>192</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>289</v>
+      </c>
+      <c r="D68">
+        <v>49</v>
+      </c>
+      <c r="E68">
+        <v>56</v>
+      </c>
+      <c r="F68">
+        <v>52.5</v>
+      </c>
+      <c r="G68" t="s">
+        <v>290</v>
+      </c>
+      <c r="H68" t="s">
+        <v>291</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69">
         <v>3573740</v>
       </c>
       <c r="B69" t="s">
-        <v>194</v>
+        <v>293</v>
       </c>
       <c r="C69" t="s">
-        <v>195</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>294</v>
+      </c>
+      <c r="D69">
+        <v>55</v>
+      </c>
+      <c r="E69">
+        <v>55</v>
+      </c>
+      <c r="F69">
+        <v>55</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70">
         <v>3257398</v>
       </c>
       <c r="B70" t="s">
-        <v>197</v>
+        <v>296</v>
       </c>
       <c r="C70" t="s">
-        <v>198</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>297</v>
+      </c>
+      <c r="D70">
+        <v>65</v>
+      </c>
+      <c r="E70">
+        <v>65</v>
+      </c>
+      <c r="F70">
+        <v>65</v>
+      </c>
+      <c r="G70" t="s">
+        <v>298</v>
+      </c>
+      <c r="H70" t="s">
+        <v>299</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71">
         <v>2904888</v>
       </c>
       <c r="B71" t="s">
-        <v>200</v>
+        <v>301</v>
       </c>
       <c r="C71" t="s">
-        <v>201</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>302</v>
+      </c>
+      <c r="D71">
+        <v>94</v>
+      </c>
+      <c r="E71">
+        <v>94</v>
+      </c>
+      <c r="F71">
+        <v>94</v>
+      </c>
+      <c r="G71" t="s">
+        <v>303</v>
+      </c>
+      <c r="H71" t="s">
+        <v>304</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72">
         <v>3436386</v>
       </c>
       <c r="B72" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="C72" t="s">
-        <v>203</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>306</v>
+      </c>
+      <c r="D72">
+        <v>75</v>
+      </c>
+      <c r="E72">
+        <v>75</v>
+      </c>
+      <c r="F72">
+        <v>75</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73">
         <v>3557369</v>
       </c>
       <c r="B73" t="s">
-        <v>205</v>
+        <v>308</v>
       </c>
       <c r="C73" t="s">
-        <v>206</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>309</v>
+      </c>
+      <c r="D73">
+        <v>94</v>
+      </c>
+      <c r="E73">
+        <v>94</v>
+      </c>
+      <c r="F73">
+        <v>94</v>
+      </c>
+      <c r="G73" t="s">
+        <v>310</v>
+      </c>
+      <c r="H73" t="s">
+        <v>311</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74">
         <v>2430908</v>
       </c>
       <c r="B74" t="s">
-        <v>208</v>
+        <v>313</v>
       </c>
       <c r="C74" t="s">
-        <v>209</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>314</v>
+      </c>
+      <c r="D74">
+        <v>280</v>
+      </c>
+      <c r="E74">
+        <v>280</v>
+      </c>
+      <c r="F74">
+        <v>280</v>
+      </c>
+      <c r="G74" t="s">
+        <v>315</v>
+      </c>
+      <c r="H74" t="s">
+        <v>316</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75">
         <v>3538487</v>
       </c>
       <c r="B75" t="s">
-        <v>200</v>
+        <v>301</v>
       </c>
       <c r="C75" t="s">
-        <v>211</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="D75">
+        <v>100</v>
+      </c>
+      <c r="E75">
+        <v>100</v>
+      </c>
+      <c r="F75">
+        <v>100</v>
+      </c>
+      <c r="G75" t="s">
+        <v>319</v>
+      </c>
+      <c r="H75" t="s">
+        <v>320</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76">
         <v>3430288</v>
       </c>
       <c r="B76" t="s">
-        <v>213</v>
+        <v>322</v>
       </c>
       <c r="C76" t="s">
-        <v>214</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>323</v>
+      </c>
+      <c r="D76">
+        <v>130</v>
+      </c>
+      <c r="E76">
+        <v>130</v>
+      </c>
+      <c r="F76">
+        <v>130</v>
+      </c>
+      <c r="G76" t="s">
+        <v>324</v>
+      </c>
+      <c r="H76" t="s">
+        <v>325</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77">
         <v>3553460</v>
       </c>
       <c r="B77" t="s">
-        <v>216</v>
+        <v>327</v>
       </c>
       <c r="C77" t="s">
-        <v>217</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>328</v>
+      </c>
+      <c r="D77">
+        <v>135</v>
+      </c>
+      <c r="E77">
+        <v>151</v>
+      </c>
+      <c r="F77">
+        <v>143</v>
+      </c>
+      <c r="G77" t="s">
+        <v>329</v>
+      </c>
+      <c r="H77" t="s">
+        <v>330</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78">
         <v>2923015</v>
       </c>
       <c r="B78" t="s">
-        <v>219</v>
+        <v>332</v>
       </c>
       <c r="C78" t="s">
-        <v>220</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>333</v>
+      </c>
+      <c r="D78">
+        <v>340</v>
+      </c>
+      <c r="E78">
+        <v>900</v>
+      </c>
+      <c r="F78">
+        <v>620</v>
+      </c>
+      <c r="G78" t="s">
+        <v>334</v>
+      </c>
+      <c r="H78" t="s">
+        <v>335</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79">
         <v>3000894</v>
       </c>
       <c r="B79" t="s">
-        <v>222</v>
+        <v>337</v>
       </c>
       <c r="C79" t="s">
-        <v>223</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>338</v>
+      </c>
+      <c r="D79">
+        <v>93</v>
+      </c>
+      <c r="E79">
+        <v>110</v>
+      </c>
+      <c r="F79">
+        <v>101.5</v>
+      </c>
+      <c r="G79" t="s">
+        <v>339</v>
+      </c>
+      <c r="H79" t="s">
+        <v>340</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80">
         <v>3083429</v>
       </c>
       <c r="B80" t="s">
-        <v>225</v>
+        <v>342</v>
       </c>
       <c r="C80" t="s">
-        <v>223</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>338</v>
+      </c>
+      <c r="D80">
+        <v>93</v>
+      </c>
+      <c r="E80">
+        <v>110</v>
+      </c>
+      <c r="F80">
+        <v>101.5</v>
+      </c>
+      <c r="G80" t="s">
+        <v>343</v>
+      </c>
+      <c r="H80" t="s">
+        <v>344</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81">
         <v>3183799</v>
       </c>
       <c r="B81" t="s">
-        <v>227</v>
+        <v>346</v>
       </c>
       <c r="C81" t="s">
-        <v>228</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>347</v>
+      </c>
+      <c r="D81">
+        <v>93</v>
+      </c>
+      <c r="E81">
+        <v>107</v>
+      </c>
+      <c r="F81">
+        <v>100</v>
+      </c>
+      <c r="G81" t="s">
+        <v>348</v>
+      </c>
+      <c r="H81" t="s">
+        <v>349</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82">
         <v>3361955</v>
       </c>
       <c r="B82" t="s">
-        <v>230</v>
+        <v>351</v>
       </c>
       <c r="C82" t="s">
-        <v>228</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>347</v>
+      </c>
+      <c r="D82">
+        <v>110</v>
+      </c>
+      <c r="E82">
+        <v>119</v>
+      </c>
+      <c r="F82">
+        <v>114.5</v>
+      </c>
+      <c r="G82" t="s">
+        <v>352</v>
+      </c>
+      <c r="H82" t="s">
+        <v>353</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83">
         <v>3385600</v>
       </c>
       <c r="B83" t="s">
-        <v>232</v>
+        <v>355</v>
       </c>
       <c r="C83" t="s">
-        <v>233</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>356</v>
+      </c>
+      <c r="D83">
+        <v>97</v>
+      </c>
+      <c r="E83">
+        <v>107</v>
+      </c>
+      <c r="F83">
+        <v>102</v>
+      </c>
+      <c r="G83" t="s">
+        <v>357</v>
+      </c>
+      <c r="H83" t="s">
+        <v>358</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84">
         <v>3466767</v>
       </c>
       <c r="B84" t="s">
-        <v>222</v>
+        <v>337</v>
       </c>
       <c r="C84" t="s">
-        <v>233</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>356</v>
+      </c>
+      <c r="D84">
+        <v>97</v>
+      </c>
+      <c r="E84">
+        <v>107</v>
+      </c>
+      <c r="F84">
+        <v>102</v>
+      </c>
+      <c r="G84" t="s">
+        <v>339</v>
+      </c>
+      <c r="H84" t="s">
+        <v>340</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85">
         <v>3469556</v>
       </c>
       <c r="B85" t="s">
-        <v>236</v>
+        <v>361</v>
       </c>
       <c r="C85" t="s">
-        <v>237</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>362</v>
+      </c>
+      <c r="D85">
+        <v>140</v>
+      </c>
+      <c r="E85">
+        <v>154</v>
+      </c>
+      <c r="F85">
+        <v>147</v>
+      </c>
+      <c r="G85" t="s">
+        <v>363</v>
+      </c>
+      <c r="H85" t="s">
+        <v>364</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86">
         <v>2904658</v>
       </c>
       <c r="B86" t="s">
-        <v>239</v>
+        <v>366</v>
       </c>
       <c r="C86" t="s">
-        <v>240</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>367</v>
+      </c>
+      <c r="D86">
+        <v>94</v>
+      </c>
+      <c r="E86">
+        <v>107</v>
+      </c>
+      <c r="F86">
+        <v>100.5</v>
+      </c>
+      <c r="G86" t="s">
+        <v>368</v>
+      </c>
+      <c r="H86" t="s">
+        <v>369</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87">
         <v>3547228</v>
       </c>
       <c r="B87" t="s">
-        <v>242</v>
+        <v>371</v>
       </c>
       <c r="C87" t="s">
-        <v>243</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>372</v>
+      </c>
+      <c r="D87">
+        <v>94</v>
+      </c>
+      <c r="E87">
+        <v>111</v>
+      </c>
+      <c r="F87">
+        <v>102.5</v>
+      </c>
+      <c r="G87" t="s">
+        <v>373</v>
+      </c>
+      <c r="H87" t="s">
+        <v>374</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88">
         <v>3300044</v>
       </c>
       <c r="B88" t="s">
-        <v>245</v>
+        <v>376</v>
       </c>
       <c r="C88" t="s">
-        <v>246</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>377</v>
+      </c>
+      <c r="D88">
+        <v>232.97</v>
+      </c>
+      <c r="E88">
+        <v>275.17</v>
+      </c>
+      <c r="F88">
+        <v>254.07</v>
+      </c>
+      <c r="G88" t="s">
+        <v>378</v>
+      </c>
+      <c r="H88" t="s">
+        <v>379</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89">
+        <v>3083201</v>
+      </c>
+      <c r="B89" t="s">
+        <v>381</v>
+      </c>
+      <c r="C89" t="s">
+        <v>382</v>
+      </c>
+      <c r="D89">
+        <v>210</v>
+      </c>
+      <c r="E89">
+        <v>232</v>
+      </c>
+      <c r="F89">
+        <v>221</v>
+      </c>
+      <c r="G89" t="s">
+        <v>383</v>
+      </c>
+      <c r="H89" t="s">
+        <v>384</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90">
         <v>2482538</v>
       </c>
-      <c r="B89" t="s">
-        <v>83</v>
-      </c>
-      <c r="C89" t="s">
-        <v>248</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90">
-        <v>3083201</v>
-      </c>
       <c r="B90" t="s">
-        <v>250</v>
+        <v>135</v>
       </c>
       <c r="C90" t="s">
-        <v>248</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>382</v>
+      </c>
+      <c r="D90">
+        <v>233</v>
+      </c>
+      <c r="E90">
+        <v>233</v>
+      </c>
+      <c r="F90">
+        <v>233</v>
+      </c>
+      <c r="G90" t="s">
+        <v>386</v>
+      </c>
+      <c r="H90" t="s">
+        <v>387</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91">
         <v>3514106</v>
       </c>
       <c r="B91" t="s">
+        <v>389</v>
+      </c>
+      <c r="C91" t="s">
+        <v>390</v>
+      </c>
+      <c r="D91">
+        <v>212</v>
+      </c>
+      <c r="E91">
         <v>252</v>
       </c>
-      <c r="C91" t="s">
-        <v>253</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="F91">
+        <v>232</v>
+      </c>
+      <c r="G91" t="s">
+        <v>391</v>
+      </c>
+      <c r="H91" t="s">
+        <v>392</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92">
         <v>3300042</v>
       </c>
       <c r="B92" t="s">
-        <v>255</v>
+        <v>394</v>
       </c>
       <c r="C92" t="s">
-        <v>256</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>395</v>
+      </c>
+      <c r="D92">
+        <v>258.49</v>
+      </c>
+      <c r="E92">
+        <v>315.59</v>
+      </c>
+      <c r="F92">
+        <v>287.04</v>
+      </c>
+      <c r="G92" t="s">
+        <v>396</v>
+      </c>
+      <c r="H92" t="s">
+        <v>397</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93">
         <v>3083202</v>
       </c>
       <c r="B93" t="s">
-        <v>258</v>
+        <v>399</v>
       </c>
       <c r="C93" t="s">
-        <v>259</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>400</v>
+      </c>
+      <c r="D93">
+        <v>245</v>
+      </c>
+      <c r="E93">
+        <v>262</v>
+      </c>
+      <c r="F93">
+        <v>253.5</v>
+      </c>
+      <c r="G93" t="s">
+        <v>401</v>
+      </c>
+      <c r="H93" t="s">
+        <v>402</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94">
         <v>2482540</v>
       </c>
       <c r="B94" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="C94" t="s">
-        <v>261</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>404</v>
+      </c>
+      <c r="D94">
+        <v>258</v>
+      </c>
+      <c r="E94">
+        <v>258</v>
+      </c>
+      <c r="F94">
+        <v>258</v>
+      </c>
+      <c r="G94" t="s">
+        <v>405</v>
+      </c>
+      <c r="H94" t="s">
+        <v>406</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95">
         <v>3551350</v>
       </c>
       <c r="B95" t="s">
-        <v>263</v>
+        <v>408</v>
       </c>
       <c r="C95" t="s">
-        <v>264</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>409</v>
+      </c>
+      <c r="D95">
+        <v>50</v>
+      </c>
+      <c r="E95">
+        <v>50</v>
+      </c>
+      <c r="F95">
+        <v>50</v>
+      </c>
+      <c r="G95" t="s">
+        <v>78</v>
+      </c>
+      <c r="H95" t="s">
+        <v>410</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96">
         <v>3418312</v>
       </c>
       <c r="B96" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c r="C96" t="s">
-        <v>266</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>412</v>
+      </c>
+      <c r="D96">
+        <v>68</v>
+      </c>
+      <c r="E96">
+        <v>68</v>
+      </c>
+      <c r="F96">
+        <v>68</v>
+      </c>
+      <c r="G96" t="s">
+        <v>413</v>
+      </c>
+      <c r="H96" t="s">
+        <v>410</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97">
         <v>3534550</v>
       </c>
       <c r="B97" t="s">
-        <v>268</v>
+        <v>415</v>
       </c>
       <c r="C97" t="s">
-        <v>269</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>416</v>
+      </c>
+      <c r="D97">
+        <v>50</v>
+      </c>
+      <c r="E97">
+        <v>50</v>
+      </c>
+      <c r="F97">
+        <v>50</v>
+      </c>
+      <c r="G97" t="s">
+        <v>417</v>
+      </c>
+      <c r="H97" t="s">
+        <v>418</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98">
+        <v>3587835</v>
+      </c>
+      <c r="B98" t="s">
+        <v>420</v>
+      </c>
+      <c r="C98" t="s">
+        <v>421</v>
+      </c>
+      <c r="D98">
+        <v>50</v>
+      </c>
+      <c r="E98">
+        <v>50</v>
+      </c>
+      <c r="F98">
+        <v>50</v>
+      </c>
+      <c r="G98" t="s">
+        <v>422</v>
+      </c>
+      <c r="H98" t="s">
+        <v>423</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99">
         <v>3549526</v>
       </c>
-      <c r="B98" t="s">
-        <v>271</v>
-      </c>
-      <c r="C98" t="s">
-        <v>272</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99">
+      <c r="B99" t="s">
+        <v>425</v>
+      </c>
+      <c r="C99" t="s">
+        <v>426</v>
+      </c>
+      <c r="D99">
+        <v>50</v>
+      </c>
+      <c r="E99">
+        <v>50</v>
+      </c>
+      <c r="F99">
+        <v>50</v>
+      </c>
+      <c r="G99" t="s">
+        <v>427</v>
+      </c>
+      <c r="H99" t="s">
+        <v>428</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100">
         <v>3552873</v>
       </c>
-      <c r="B99" t="s">
-        <v>94</v>
-      </c>
-      <c r="C99" t="s">
-        <v>274</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100">
+      <c r="B100" t="s">
+        <v>150</v>
+      </c>
+      <c r="C100" t="s">
+        <v>430</v>
+      </c>
+      <c r="D100">
+        <v>49</v>
+      </c>
+      <c r="E100">
+        <v>49</v>
+      </c>
+      <c r="F100">
+        <v>49</v>
+      </c>
+      <c r="G100" t="s">
+        <v>431</v>
+      </c>
+      <c r="H100" t="s">
+        <v>432</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101">
         <v>3110076</v>
       </c>
-      <c r="B100" t="s">
-        <v>276</v>
-      </c>
-      <c r="C100" t="s">
-        <v>277</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101">
+      <c r="B101" t="s">
+        <v>434</v>
+      </c>
+      <c r="C101" t="s">
+        <v>435</v>
+      </c>
+      <c r="D101">
+        <v>95</v>
+      </c>
+      <c r="E101">
+        <v>95</v>
+      </c>
+      <c r="F101">
+        <v>95</v>
+      </c>
+      <c r="G101" t="s">
+        <v>436</v>
+      </c>
+      <c r="H101" t="s">
+        <v>437</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102">
         <v>3567426</v>
       </c>
-      <c r="B101" t="s">
-        <v>279</v>
-      </c>
-      <c r="C101" t="s">
-        <v>176</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102">
+      <c r="B102" t="s">
+        <v>439</v>
+      </c>
+      <c r="C102" t="s">
+        <v>264</v>
+      </c>
+      <c r="D102">
+        <v>90</v>
+      </c>
+      <c r="E102">
+        <v>95</v>
+      </c>
+      <c r="F102">
+        <v>92.5</v>
+      </c>
+      <c r="G102" t="s">
+        <v>427</v>
+      </c>
+      <c r="H102" t="s">
+        <v>428</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103">
         <v>3581589</v>
       </c>
-      <c r="B102" t="s">
-        <v>281</v>
-      </c>
-      <c r="C102" t="s">
-        <v>282</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103">
+      <c r="B103" t="s">
+        <v>441</v>
+      </c>
+      <c r="C103" t="s">
+        <v>442</v>
+      </c>
+      <c r="D103">
+        <v>65</v>
+      </c>
+      <c r="E103">
+        <v>70</v>
+      </c>
+      <c r="F103">
+        <v>67.5</v>
+      </c>
+      <c r="G103" t="s">
+        <v>443</v>
+      </c>
+      <c r="H103" t="s">
+        <v>444</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104">
         <v>3540940</v>
       </c>
-      <c r="B103" t="s">
-        <v>284</v>
-      </c>
-      <c r="C103" t="s">
-        <v>285</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>286</v>
+      <c r="B104" t="s">
+        <v>446</v>
+      </c>
+      <c r="C104" t="s">
+        <v>447</v>
+      </c>
+      <c r="D104">
+        <v>63</v>
+      </c>
+      <c r="E104">
+        <v>63</v>
+      </c>
+      <c r="F104">
+        <v>63</v>
+      </c>
+      <c r="G104" t="s">
+        <v>448</v>
+      </c>
+      <c r="H104" t="s">
+        <v>410</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>449</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D8" r:id="rId7"/>
-    <hyperlink ref="D9" r:id="rId8"/>
-    <hyperlink ref="D10" r:id="rId9"/>
-    <hyperlink ref="D11" r:id="rId10"/>
-    <hyperlink ref="D12" r:id="rId11"/>
-    <hyperlink ref="D13" r:id="rId12"/>
-    <hyperlink ref="D14" r:id="rId13"/>
-    <hyperlink ref="D15" r:id="rId14"/>
-    <hyperlink ref="D16" r:id="rId15"/>
-    <hyperlink ref="D17" r:id="rId16"/>
-    <hyperlink ref="D18" r:id="rId17"/>
-    <hyperlink ref="D19" r:id="rId18"/>
-    <hyperlink ref="D20" r:id="rId19"/>
-    <hyperlink ref="D21" r:id="rId20"/>
-    <hyperlink ref="D22" r:id="rId21"/>
-    <hyperlink ref="D23" r:id="rId22"/>
-    <hyperlink ref="D24" r:id="rId23"/>
-    <hyperlink ref="D25" r:id="rId24"/>
-    <hyperlink ref="D26" r:id="rId25"/>
-    <hyperlink ref="D27" r:id="rId26"/>
-    <hyperlink ref="D28" r:id="rId27"/>
-    <hyperlink ref="D29" r:id="rId28"/>
-    <hyperlink ref="D30" r:id="rId29"/>
-    <hyperlink ref="D31" r:id="rId30"/>
-    <hyperlink ref="D32" r:id="rId31"/>
-    <hyperlink ref="D33" r:id="rId32"/>
-    <hyperlink ref="D34" r:id="rId33"/>
-    <hyperlink ref="D35" r:id="rId34"/>
-    <hyperlink ref="D36" r:id="rId35"/>
-    <hyperlink ref="D37" r:id="rId36"/>
-    <hyperlink ref="D38" r:id="rId37"/>
-    <hyperlink ref="D39" r:id="rId38"/>
-    <hyperlink ref="D40" r:id="rId39"/>
-    <hyperlink ref="D41" r:id="rId40"/>
-    <hyperlink ref="D42" r:id="rId41"/>
-    <hyperlink ref="D43" r:id="rId42"/>
-    <hyperlink ref="D44" r:id="rId43"/>
-    <hyperlink ref="D45" r:id="rId44"/>
-    <hyperlink ref="D46" r:id="rId45"/>
-    <hyperlink ref="D47" r:id="rId46"/>
-    <hyperlink ref="D48" r:id="rId47"/>
-    <hyperlink ref="D49" r:id="rId48"/>
-    <hyperlink ref="D50" r:id="rId49"/>
-    <hyperlink ref="D51" r:id="rId50"/>
-    <hyperlink ref="D52" r:id="rId51"/>
-    <hyperlink ref="D53" r:id="rId52"/>
-    <hyperlink ref="D54" r:id="rId53"/>
-    <hyperlink ref="D55" r:id="rId54"/>
-    <hyperlink ref="D56" r:id="rId55"/>
-    <hyperlink ref="D57" r:id="rId56"/>
-    <hyperlink ref="D58" r:id="rId57"/>
-    <hyperlink ref="D59" r:id="rId58"/>
-    <hyperlink ref="D60" r:id="rId59"/>
-    <hyperlink ref="D61" r:id="rId60"/>
-    <hyperlink ref="D62" r:id="rId61"/>
-    <hyperlink ref="D63" r:id="rId62"/>
-    <hyperlink ref="D64" r:id="rId63"/>
-    <hyperlink ref="D65" r:id="rId64"/>
-    <hyperlink ref="D66" r:id="rId65"/>
-    <hyperlink ref="D67" r:id="rId66"/>
-    <hyperlink ref="D68" r:id="rId67"/>
-    <hyperlink ref="D69" r:id="rId68"/>
-    <hyperlink ref="D70" r:id="rId69"/>
-    <hyperlink ref="D71" r:id="rId70"/>
-    <hyperlink ref="D72" r:id="rId71"/>
-    <hyperlink ref="D73" r:id="rId72"/>
-    <hyperlink ref="D74" r:id="rId73"/>
-    <hyperlink ref="D75" r:id="rId74"/>
-    <hyperlink ref="D76" r:id="rId75"/>
-    <hyperlink ref="D77" r:id="rId76"/>
-    <hyperlink ref="D78" r:id="rId77"/>
-    <hyperlink ref="D79" r:id="rId78"/>
-    <hyperlink ref="D80" r:id="rId79"/>
-    <hyperlink ref="D81" r:id="rId80"/>
-    <hyperlink ref="D82" r:id="rId81"/>
-    <hyperlink ref="D83" r:id="rId82"/>
-    <hyperlink ref="D84" r:id="rId83"/>
-    <hyperlink ref="D85" r:id="rId84"/>
-    <hyperlink ref="D86" r:id="rId85"/>
-    <hyperlink ref="D87" r:id="rId86"/>
-    <hyperlink ref="D88" r:id="rId87"/>
-    <hyperlink ref="D89" r:id="rId88"/>
-    <hyperlink ref="D90" r:id="rId89"/>
-    <hyperlink ref="D91" r:id="rId90"/>
-    <hyperlink ref="D92" r:id="rId91"/>
-    <hyperlink ref="D93" r:id="rId92"/>
-    <hyperlink ref="D94" r:id="rId93"/>
-    <hyperlink ref="D95" r:id="rId94"/>
-    <hyperlink ref="D96" r:id="rId95"/>
-    <hyperlink ref="D97" r:id="rId96"/>
-    <hyperlink ref="D98" r:id="rId97"/>
-    <hyperlink ref="D99" r:id="rId98"/>
-    <hyperlink ref="D100" r:id="rId99"/>
-    <hyperlink ref="D101" r:id="rId100"/>
-    <hyperlink ref="D102" r:id="rId101"/>
-    <hyperlink ref="D103" r:id="rId102"/>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="I4" r:id="rId3"/>
+    <hyperlink ref="I5" r:id="rId4"/>
+    <hyperlink ref="I6" r:id="rId5"/>
+    <hyperlink ref="I7" r:id="rId6"/>
+    <hyperlink ref="I8" r:id="rId7"/>
+    <hyperlink ref="I9" r:id="rId8"/>
+    <hyperlink ref="I10" r:id="rId9"/>
+    <hyperlink ref="I11" r:id="rId10"/>
+    <hyperlink ref="I12" r:id="rId11"/>
+    <hyperlink ref="I13" r:id="rId12"/>
+    <hyperlink ref="I14" r:id="rId13"/>
+    <hyperlink ref="I15" r:id="rId14"/>
+    <hyperlink ref="I16" r:id="rId15"/>
+    <hyperlink ref="I17" r:id="rId16"/>
+    <hyperlink ref="I18" r:id="rId17"/>
+    <hyperlink ref="I19" r:id="rId18"/>
+    <hyperlink ref="I20" r:id="rId19"/>
+    <hyperlink ref="I21" r:id="rId20"/>
+    <hyperlink ref="I22" r:id="rId21"/>
+    <hyperlink ref="I23" r:id="rId22"/>
+    <hyperlink ref="I24" r:id="rId23"/>
+    <hyperlink ref="I25" r:id="rId24"/>
+    <hyperlink ref="I26" r:id="rId25"/>
+    <hyperlink ref="I27" r:id="rId26"/>
+    <hyperlink ref="I28" r:id="rId27"/>
+    <hyperlink ref="I29" r:id="rId28"/>
+    <hyperlink ref="I30" r:id="rId29"/>
+    <hyperlink ref="I31" r:id="rId30"/>
+    <hyperlink ref="I32" r:id="rId31"/>
+    <hyperlink ref="I33" r:id="rId32"/>
+    <hyperlink ref="I34" r:id="rId33"/>
+    <hyperlink ref="I35" r:id="rId34"/>
+    <hyperlink ref="I36" r:id="rId35"/>
+    <hyperlink ref="I37" r:id="rId36"/>
+    <hyperlink ref="I38" r:id="rId37"/>
+    <hyperlink ref="I39" r:id="rId38"/>
+    <hyperlink ref="I40" r:id="rId39"/>
+    <hyperlink ref="I41" r:id="rId40"/>
+    <hyperlink ref="I42" r:id="rId41"/>
+    <hyperlink ref="I43" r:id="rId42"/>
+    <hyperlink ref="I44" r:id="rId43"/>
+    <hyperlink ref="I45" r:id="rId44"/>
+    <hyperlink ref="I46" r:id="rId45"/>
+    <hyperlink ref="I47" r:id="rId46"/>
+    <hyperlink ref="I48" r:id="rId47"/>
+    <hyperlink ref="I49" r:id="rId48"/>
+    <hyperlink ref="I50" r:id="rId49"/>
+    <hyperlink ref="I51" r:id="rId50"/>
+    <hyperlink ref="I52" r:id="rId51"/>
+    <hyperlink ref="I53" r:id="rId52"/>
+    <hyperlink ref="I54" r:id="rId53"/>
+    <hyperlink ref="I55" r:id="rId54"/>
+    <hyperlink ref="I56" r:id="rId55"/>
+    <hyperlink ref="I57" r:id="rId56"/>
+    <hyperlink ref="I58" r:id="rId57"/>
+    <hyperlink ref="I59" r:id="rId58"/>
+    <hyperlink ref="I60" r:id="rId59"/>
+    <hyperlink ref="I61" r:id="rId60"/>
+    <hyperlink ref="I62" r:id="rId61"/>
+    <hyperlink ref="I63" r:id="rId62"/>
+    <hyperlink ref="I64" r:id="rId63"/>
+    <hyperlink ref="I65" r:id="rId64"/>
+    <hyperlink ref="I66" r:id="rId65"/>
+    <hyperlink ref="I67" r:id="rId66"/>
+    <hyperlink ref="I68" r:id="rId67"/>
+    <hyperlink ref="I69" r:id="rId68"/>
+    <hyperlink ref="I70" r:id="rId69"/>
+    <hyperlink ref="I71" r:id="rId70"/>
+    <hyperlink ref="I72" r:id="rId71"/>
+    <hyperlink ref="I73" r:id="rId72"/>
+    <hyperlink ref="I74" r:id="rId73"/>
+    <hyperlink ref="I75" r:id="rId74"/>
+    <hyperlink ref="I76" r:id="rId75"/>
+    <hyperlink ref="I77" r:id="rId76"/>
+    <hyperlink ref="I78" r:id="rId77"/>
+    <hyperlink ref="I79" r:id="rId78"/>
+    <hyperlink ref="I80" r:id="rId79"/>
+    <hyperlink ref="I81" r:id="rId80"/>
+    <hyperlink ref="I82" r:id="rId81"/>
+    <hyperlink ref="I83" r:id="rId82"/>
+    <hyperlink ref="I84" r:id="rId83"/>
+    <hyperlink ref="I85" r:id="rId84"/>
+    <hyperlink ref="I86" r:id="rId85"/>
+    <hyperlink ref="I87" r:id="rId86"/>
+    <hyperlink ref="I88" r:id="rId87"/>
+    <hyperlink ref="I89" r:id="rId88"/>
+    <hyperlink ref="I90" r:id="rId89"/>
+    <hyperlink ref="I91" r:id="rId90"/>
+    <hyperlink ref="I92" r:id="rId91"/>
+    <hyperlink ref="I93" r:id="rId92"/>
+    <hyperlink ref="I94" r:id="rId93"/>
+    <hyperlink ref="I95" r:id="rId94"/>
+    <hyperlink ref="I96" r:id="rId95"/>
+    <hyperlink ref="I97" r:id="rId96"/>
+    <hyperlink ref="I98" r:id="rId97"/>
+    <hyperlink ref="I99" r:id="rId98"/>
+    <hyperlink ref="I100" r:id="rId99"/>
+    <hyperlink ref="I101" r:id="rId100"/>
+    <hyperlink ref="I102" r:id="rId101"/>
+    <hyperlink ref="I103" r:id="rId102"/>
+    <hyperlink ref="I104" r:id="rId103"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
